--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>887715.4499497758</v>
+        <v>885827.8684333733</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>190.0910713444383</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>171.789906059415</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>372.0445717845312</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>40.1282413554524</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>50.28788303971703</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>223.3593330834803</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>267.6706011535632</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.950364805198</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>182.841406569471</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>101.004168848341</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>222.7714625939288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185831</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>210.9685212521341</v>
       </c>
       <c r="V19" t="n">
-        <v>69.67391997229328</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6519788371598</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121.6718243676502</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>57.56452900498738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>198.3417088662291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.58966474227975</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>42.20569823125503</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523581</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>150.2875534647623</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415213</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2468.595243912943</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2468.595243912943</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2137.532356569372</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1784.763701299258</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.763701299258</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.624369323446</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>246.1363086691493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>246.1363086691493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>246.1363086691493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1149.674052893962</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>763.8858002957179</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>756.9402995465144</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>677.3331427521746</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>677.3331427521746</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V7" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1090.256031232737</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>704.4677786344926</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>293.481873844885</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>279.5584697834759</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2153.11138992122</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>2153.11138992122</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1762.972057945408</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890052</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1314.22798109379</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>1314.22798109379</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V13" t="n">
-        <v>1059.543492887903</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W13" t="n">
-        <v>770.1263228509424</v>
+        <v>420.0340835819381</v>
       </c>
       <c r="X13" t="n">
-        <v>542.1367719529251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>329.1202010073252</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>825.1124611285479</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>656.176278200641</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883053</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883053</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>1273.894591170095</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W16" t="n">
-        <v>1273.894591170095</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.905040272078</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="Y16" t="n">
-        <v>825.1124611285479</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5601,19 +5601,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="C19" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V19" t="n">
-        <v>1317.463470178017</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W19" t="n">
-        <v>1028.046300141057</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>1028.046300141057</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>1028.046300141057</v>
+        <v>97.21709146028579</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5750,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>518.4490261893317</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>370.5359326069386</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>370.5359326069386</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W22" t="n">
-        <v>1298.996260473455</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.006709575437</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="Y22" t="n">
-        <v>850.2141304319072</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,13 +6145,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>1044.311772267568</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>816.3222213695503</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.9770608986119</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1430.643881929337</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1430.643881929337</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1430.643881929337</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1430.643881929337</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1175.95939372345</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>1175.95939372345</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>1175.95939372345</v>
+        <v>268.6754855415408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.95939372345</v>
+        <v>268.6754855415408</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,34 +6446,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215256</v>
+        <v>439.5324299542185</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749894</v>
+        <v>326.3571123076823</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440244</v>
+        <v>232.0013381767174</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>139.849109875695</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>139.849109875695</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>139.849109875695</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>139.849109875695</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818922</v>
+        <v>902.6804289818932</v>
       </c>
       <c r="X31" t="n">
-        <v>750.8748194215256</v>
+        <v>730.4517433652467</v>
       </c>
       <c r="Y31" t="n">
-        <v>750.8748194215256</v>
+        <v>565.4200295030873</v>
       </c>
     </row>
     <row r="32">
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>157.2587625717277</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>306.3284467737875</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802515</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7020,22 +7020,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,7 +7801,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,13 +7810,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>41.75994765618381</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>22.04402060665542</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>5.100663089359443</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>85.30006332127806</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>18.73797368291333</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>188.8856946302403</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>38.70615448891824</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>124.7054865406962</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>29.36618072989918</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>185.2331835502365</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="V19" t="n">
-        <v>182.4637233515347</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.18000134477752</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>44.82174409572741</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>194.5731143188406</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.24294448586571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>10.08817004149492</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.37468766151305</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>13.01029060445988</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>20.21884529571782</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26320,34 +26320,34 @@
         <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>371477.6067508237</v>
+        <v>371477.6067508236</v>
       </c>
       <c r="F2" t="n">
+        <v>371477.6067508235</v>
+      </c>
+      <c r="G2" t="n">
         <v>371477.6067508236</v>
-      </c>
-      <c r="G2" t="n">
-        <v>371477.6067508237</v>
       </c>
       <c r="H2" t="n">
         <v>371477.6067508236</v>
       </c>
       <c r="I2" t="n">
+        <v>371477.6067508237</v>
+      </c>
+      <c r="J2" t="n">
         <v>371477.6067508236</v>
-      </c>
-      <c r="J2" t="n">
-        <v>371477.6067508237</v>
       </c>
       <c r="K2" t="n">
         <v>386481.0304780068</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="M2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="O2" t="n">
         <v>389994.8406855348</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159208</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007523</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007493</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007458</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26525,28 +26525,28 @@
         <v>159218.7139062042</v>
       </c>
       <c r="D6" t="n">
-        <v>159218.7139062042</v>
+        <v>159218.7139062041</v>
       </c>
       <c r="E6" t="n">
-        <v>-253586.4873307965</v>
+        <v>-253683.9464567689</v>
       </c>
       <c r="F6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201272</v>
       </c>
       <c r="G6" t="n">
-        <v>271573.5491460996</v>
+        <v>271476.0900201273</v>
       </c>
       <c r="H6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201273</v>
       </c>
       <c r="I6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201274</v>
       </c>
       <c r="J6" t="n">
-        <v>95150.32995350663</v>
+        <v>95052.87082753434</v>
       </c>
       <c r="K6" t="n">
-        <v>219608.8624747344</v>
+        <v>219590.3687368</v>
       </c>
       <c r="L6" t="n">
         <v>251601.3091673145</v>
@@ -26555,7 +26555,7 @@
         <v>127143.2007343443</v>
       </c>
       <c r="N6" t="n">
-        <v>261944.2159681814</v>
+        <v>261944.2159681813</v>
       </c>
       <c r="O6" t="n">
         <v>261944.2159681814</v>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964062</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>175.1818204265692</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>44.65841429824277</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.31325977179779</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>41.73959823626376</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>329.6028593230166</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>174.7472224183672</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>112.2436641085299</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>100.5634396808768</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>81.57036756384986</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.49548950841407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>618.3470930053976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>192.335386244123</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>110.0570533917296</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>93.11369587443357</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773024</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>60.64815263782002</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>395.979109561765</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
